--- a/examples/reports/ru-ru/SalesProcedureParticipantsReportTemplate.xlsx
+++ b/examples/reports/ru-ru/SalesProcedureParticipantsReportTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\bidzaar\src\etplight\backend\services\reportgenerator\src\Cognitive.ReportGenerator\Templates\ru-ru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B6B42B-EBC6-4730-8414-47FD4139C198}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2344B2-2239-4EE5-94E7-E29FB8F995EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,14 +202,14 @@
     <t>$.Participants[*].Link</t>
   </si>
   <si>
-    <t>Документ сформирован $.Now, время в документе указано в часовом поясе $.Tz</t>
+    <t>Сформировано $.BrandName в $.Now, время в документе указано в часовом поясе $.Tz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -273,6 +273,12 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -321,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -384,6 +390,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -798,7 +807,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="4"/>
